--- a/Code/Results/Cases/Case_0_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_223/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00351811575947103</v>
+        <v>0.00121430506933784</v>
       </c>
       <c r="D2">
-        <v>0.006642437854498695</v>
+        <v>0.00204646281340537</v>
       </c>
       <c r="E2">
-        <v>1.55566484878311</v>
+        <v>0.4304973541417638</v>
       </c>
       <c r="F2">
-        <v>1.875886600853079</v>
+        <v>0.8133486523056916</v>
       </c>
       <c r="G2">
-        <v>0.0007204789689694416</v>
+        <v>0.002341840673280299</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.421898502779911</v>
+        <v>0.6112125958755712</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>6.307730098780951</v>
+        <v>2.71929717795183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003043403720985438</v>
+        <v>0.001082874213395257</v>
       </c>
       <c r="D3">
-        <v>0.005565408747660427</v>
+        <v>0.001855303547857901</v>
       </c>
       <c r="E3">
-        <v>1.326205296570123</v>
+        <v>0.3750918814098725</v>
       </c>
       <c r="F3">
-        <v>1.618701688777321</v>
+        <v>0.7525647962886808</v>
       </c>
       <c r="G3">
-        <v>0.0007282076964615029</v>
+        <v>0.002346712352590319</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.22659180223863</v>
+        <v>0.565059335681795</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>5.440399268552937</v>
+        <v>2.515198469554434</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002755456163043846</v>
+        <v>0.001002524826834161</v>
       </c>
       <c r="D4">
-        <v>0.004941238200814269</v>
+        <v>0.001739784820802726</v>
       </c>
       <c r="E4">
-        <v>1.189466614278672</v>
+        <v>0.3412096363495465</v>
       </c>
       <c r="F4">
-        <v>1.464263074801536</v>
+        <v>0.7157517958633264</v>
       </c>
       <c r="G4">
-        <v>0.0007330636034319467</v>
+        <v>0.002349859887713835</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.10933058183717</v>
+        <v>0.5371031260879988</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>4.919871494112556</v>
+        <v>2.391593294181121</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002638839087437006</v>
+        <v>0.0009698708156626878</v>
       </c>
       <c r="D5">
-        <v>0.004694650207708762</v>
+        <v>0.001693152239583995</v>
       </c>
       <c r="E5">
-        <v>1.134615199638148</v>
+        <v>0.3274337357478458</v>
       </c>
       <c r="F5">
-        <v>1.402079342590554</v>
+        <v>0.7008764035240631</v>
       </c>
       <c r="G5">
-        <v>0.0007350722318164693</v>
+        <v>0.002351181983377026</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.062120111888461</v>
+        <v>0.5258055262832073</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>4.710348188083628</v>
+        <v>2.341647831043247</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002619514296691605</v>
+        <v>0.0009644540519069267</v>
       </c>
       <c r="D6">
-        <v>0.004654131597821021</v>
+        <v>0.001685434953795806</v>
       </c>
       <c r="E6">
-        <v>1.125555087158773</v>
+        <v>0.3251480654236474</v>
       </c>
       <c r="F6">
-        <v>1.391795807124069</v>
+        <v>0.6984139299659091</v>
       </c>
       <c r="G6">
-        <v>0.0007354076190719854</v>
+        <v>0.002351403903144679</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.054312973018085</v>
+        <v>0.5239352555636714</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>4.675702148011851</v>
+        <v>2.333379901361866</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002753880691878763</v>
+        <v>0.001002084080932164</v>
       </c>
       <c r="D7">
-        <v>0.00493788310481591</v>
+        <v>0.001739154157634815</v>
       </c>
       <c r="E7">
-        <v>1.188723556964078</v>
+        <v>0.3410237266118799</v>
       </c>
       <c r="F7">
-        <v>1.46342155432194</v>
+        <v>0.7155506723287317</v>
       </c>
       <c r="G7">
-        <v>0.0007330905692622487</v>
+        <v>0.002349877557992056</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.108691676466592</v>
+        <v>0.5369503806425655</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>4.917035810343009</v>
+        <v>2.390918000611521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.003353596907015088</v>
+        <v>0.001168915712886687</v>
       </c>
       <c r="D8">
-        <v>0.006262356905470057</v>
+        <v>0.001980151755827109</v>
       </c>
       <c r="E8">
-        <v>1.475574751987523</v>
+        <v>0.4113632681818302</v>
       </c>
       <c r="F8">
-        <v>1.786410600747104</v>
+        <v>0.7922838023180532</v>
       </c>
       <c r="G8">
-        <v>0.0007231222052944048</v>
+        <v>0.002343488075216054</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.353945487933927</v>
+        <v>0.5952188533536429</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>6.005909939732646</v>
+        <v>2.648564921756588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0045665202479519</v>
+        <v>0.001498820731374195</v>
       </c>
       <c r="D9">
-        <v>0.009238535903950407</v>
+        <v>0.00246857337649331</v>
       </c>
       <c r="E9">
-        <v>2.080150551991082</v>
+        <v>0.5505299427434807</v>
       </c>
       <c r="F9">
-        <v>2.453626078189458</v>
+        <v>0.9468763800419708</v>
       </c>
       <c r="G9">
-        <v>0.0007043461187654347</v>
+        <v>0.002332191884470869</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.860794532613468</v>
+        <v>0.7125798299844917</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>8.258400942964386</v>
+        <v>3.16769198211972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.005495583858419195</v>
+        <v>0.001742874978909015</v>
       </c>
       <c r="D10">
-        <v>0.01180023278526932</v>
+        <v>0.002838666599469519</v>
       </c>
       <c r="E10">
-        <v>2.565303474275495</v>
+        <v>0.6537366696595939</v>
       </c>
       <c r="F10">
-        <v>2.974593910482724</v>
+        <v>1.06309597156465</v>
       </c>
       <c r="G10">
-        <v>0.0006908526894423613</v>
+        <v>0.002324635282823703</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.256764885090945</v>
+        <v>0.8007924982839825</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>10.0201815509991</v>
+        <v>3.558010637400116</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.005931073796240582</v>
+        <v>0.001854267906850282</v>
       </c>
       <c r="D11">
-        <v>0.01308930171089173</v>
+        <v>0.003009832214619479</v>
       </c>
       <c r="E11">
-        <v>2.799302802325784</v>
+        <v>0.7009434488239918</v>
       </c>
       <c r="F11">
-        <v>3.221026994759711</v>
+        <v>1.116569624944674</v>
       </c>
       <c r="G11">
-        <v>0.0006847334768702869</v>
+        <v>0.00232135686987699</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.444141406636646</v>
+        <v>0.8413766745340467</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>10.85450883921902</v>
+        <v>3.737614285049801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.006098334649955461</v>
+        <v>0.001896502724171967</v>
       </c>
       <c r="D12">
-        <v>0.01359980660341265</v>
+        <v>0.003075081495182985</v>
       </c>
       <c r="E12">
-        <v>2.890292991878368</v>
+        <v>0.7188601408737298</v>
       </c>
       <c r="F12">
-        <v>3.315981211504635</v>
+        <v>1.136907811103981</v>
       </c>
       <c r="G12">
-        <v>0.0006824143232115814</v>
+        <v>0.002320138148584871</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.516352879844348</v>
+        <v>0.856812041308217</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>11.17615482988487</v>
+        <v>3.805927218431975</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.006062198138952368</v>
+        <v>0.001887404365003675</v>
       </c>
       <c r="D13">
-        <v>0.01348878120560215</v>
+        <v>0.003061009191064556</v>
       </c>
       <c r="E13">
-        <v>2.870582210304519</v>
+        <v>0.7149996029872341</v>
       </c>
       <c r="F13">
-        <v>3.295453424476449</v>
+        <v>1.132523635391408</v>
       </c>
       <c r="G13">
-        <v>0.0006829139648396716</v>
+        <v>0.002320399612628563</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.500741157207912</v>
+        <v>0.8534847543662067</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>11.10661143407634</v>
+        <v>3.791201313206784</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.005944784017714255</v>
+        <v>0.00185774153795748</v>
       </c>
       <c r="D14">
-        <v>0.01313082304936586</v>
+        <v>0.003015191475455481</v>
       </c>
       <c r="E14">
-        <v>2.806737875639442</v>
+        <v>0.7024166338525077</v>
       </c>
       <c r="F14">
-        <v>3.228804390552881</v>
+        <v>1.118241067548041</v>
       </c>
       <c r="G14">
-        <v>0.0006845427475690397</v>
+        <v>0.00232125614985158</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.450055750782766</v>
+        <v>0.8426451997138429</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>10.88085029621425</v>
+        <v>3.743228361005436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005873187587209117</v>
+        <v>0.001839579047743456</v>
       </c>
       <c r="D15">
-        <v>0.01291462946959143</v>
+        <v>0.002987184001156606</v>
       </c>
       <c r="E15">
-        <v>2.767956929079844</v>
+        <v>0.694714581711608</v>
       </c>
       <c r="F15">
-        <v>3.188201995857099</v>
+        <v>1.10950421354994</v>
       </c>
       <c r="G15">
-        <v>0.000685540017489747</v>
+        <v>0.002321783761383234</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.419180057765175</v>
+        <v>0.8360144317726395</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>10.74333994796029</v>
+        <v>3.713882935004619</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.005467422382686493</v>
+        <v>0.001735602602920494</v>
       </c>
       <c r="D16">
-        <v>0.01171884614995022</v>
+        <v>0.002827539476296437</v>
       </c>
       <c r="E16">
-        <v>2.550316357013543</v>
+        <v>0.6506570735473218</v>
       </c>
       <c r="F16">
-        <v>2.958701557036193</v>
+        <v>1.059613674597244</v>
       </c>
       <c r="G16">
-        <v>0.0006912525966658548</v>
+        <v>0.002324852725070079</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.24468265806135</v>
+        <v>0.798149524367247</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>9.966397498292338</v>
+        <v>3.546314856958759</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.005222111143350361</v>
+        <v>0.00167191103755826</v>
       </c>
       <c r="D17">
-        <v>0.01101990009768983</v>
+        <v>0.002730342243449257</v>
       </c>
       <c r="E17">
-        <v>2.420509215818811</v>
+        <v>0.623697632425575</v>
       </c>
       <c r="F17">
-        <v>2.820511488454201</v>
+        <v>1.029163690499303</v>
       </c>
       <c r="G17">
-        <v>0.0006947588831381036</v>
+        <v>0.00232677609088879</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.139631109142385</v>
+        <v>0.7750384128584074</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>9.498832259316657</v>
+        <v>3.444046001339359</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.005082188283360267</v>
+        <v>0.001635312328900795</v>
       </c>
       <c r="D18">
-        <v>0.01062920481163943</v>
+        <v>0.002674699540431646</v>
       </c>
       <c r="E18">
-        <v>2.347066349565594</v>
+        <v>0.6082153024572534</v>
       </c>
       <c r="F18">
-        <v>2.741897773018479</v>
+        <v>1.011706473618517</v>
       </c>
       <c r="G18">
-        <v>0.0006967777209260229</v>
+        <v>0.002327897345805218</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.079875626933799</v>
+        <v>0.7617883241393457</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>9.232928798362366</v>
+        <v>3.385415803845092</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.005035001012799967</v>
+        <v>0.001622926667021574</v>
       </c>
       <c r="D19">
-        <v>0.01049874354124469</v>
+        <v>0.002655904109918339</v>
       </c>
       <c r="E19">
-        <v>2.32239654899503</v>
+        <v>0.6029772733294863</v>
       </c>
       <c r="F19">
-        <v>2.715422182796317</v>
+        <v>1.005805459256663</v>
       </c>
       <c r="G19">
-        <v>0.00069746175679989</v>
+        <v>0.002328279561517547</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.059752154711958</v>
+        <v>0.7573093800281043</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>9.143391491210593</v>
+        <v>3.365597423163877</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.005248100221436403</v>
+        <v>0.001678687496848852</v>
       </c>
       <c r="D20">
-        <v>0.0110931027129304</v>
+        <v>0.002740661673289679</v>
       </c>
       <c r="E20">
-        <v>2.434198206272811</v>
+        <v>0.6265649991965745</v>
       </c>
       <c r="F20">
-        <v>2.835130204803079</v>
+        <v>1.032399250097257</v>
       </c>
       <c r="G20">
-        <v>0.0006943854453706316</v>
+        <v>0.002326569795315775</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.1507435237137</v>
+        <v>0.7774941886937512</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
-        <v>9.548285503668353</v>
+        <v>3.454912760925026</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005979202975094466</v>
+        <v>0.001866452803493956</v>
       </c>
       <c r="D21">
-        <v>0.01323531533252265</v>
+        <v>0.003028637277004975</v>
       </c>
       <c r="E21">
-        <v>2.825421672944387</v>
+        <v>0.7061114294735802</v>
       </c>
       <c r="F21">
-        <v>3.248333981345695</v>
+        <v>1.122433776554914</v>
       </c>
       <c r="G21">
-        <v>0.0006840644289078577</v>
+        <v>0.0023210039480104</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.464907296063402</v>
+        <v>0.8458272088643355</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
-        <v>10.94699833237507</v>
+        <v>3.757310958386086</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.006471052460160109</v>
+        <v>0.001989475413587627</v>
       </c>
       <c r="D22">
-        <v>0.01476868495257122</v>
+        <v>0.003219381215664896</v>
       </c>
       <c r="E22">
-        <v>3.09527861499069</v>
+        <v>0.7583373973780283</v>
       </c>
       <c r="F22">
-        <v>3.528086308357189</v>
+        <v>1.181795479378252</v>
       </c>
       <c r="G22">
-        <v>0.0006773048811119639</v>
+        <v>0.002317498841747085</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.677682017409651</v>
+        <v>0.8908781354258508</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
-        <v>11.89497851262729</v>
+        <v>3.956702928797881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006207058287284184</v>
+        <v>0.001923788026378048</v>
       </c>
       <c r="D23">
-        <v>0.01393629075585423</v>
+        <v>0.003117335930564735</v>
       </c>
       <c r="E23">
-        <v>2.949770951391017</v>
+        <v>0.7304404936382269</v>
       </c>
       <c r="F23">
-        <v>3.377784185034216</v>
+        <v>1.150064900034465</v>
       </c>
       <c r="G23">
-        <v>0.0006809156631586798</v>
+        <v>0.002319357505304813</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.563357084462126</v>
+        <v>0.8667973049203681</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>11.38555575188764</v>
+        <v>3.850120629423031</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.005236347138939834</v>
+        <v>0.001675623802238846</v>
       </c>
       <c r="D24">
-        <v>0.011059973448031</v>
+        <v>0.002735995522815671</v>
       </c>
       <c r="E24">
-        <v>2.428005756548984</v>
+        <v>0.6252686099535509</v>
       </c>
       <c r="F24">
-        <v>2.82851850697395</v>
+        <v>1.030936301482228</v>
       </c>
       <c r="G24">
-        <v>0.0006945542667424813</v>
+        <v>0.002326663013365198</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.145717623099614</v>
+        <v>0.7763838179350273</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>9.525918711586428</v>
+        <v>3.449999383836655</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.004233038155591728</v>
+        <v>0.001409279053220303</v>
       </c>
       <c r="D25">
-        <v>0.008379643469378806</v>
+        <v>0.002334584835804066</v>
       </c>
       <c r="E25">
-        <v>1.910675845220126</v>
+        <v>0.5127283134970213</v>
       </c>
       <c r="F25">
-        <v>2.268545611566694</v>
+        <v>0.9046007503701361</v>
       </c>
       <c r="G25">
-        <v>0.0007093588916891726</v>
+        <v>0.002335116704995537</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.720168068184208</v>
+        <v>0.6804888268093805</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>7.633148503864163</v>
+        <v>3.025721714252711</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_223/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00121430506933784</v>
+        <v>0.003518115759174378</v>
       </c>
       <c r="D2">
-        <v>0.00204646281340537</v>
+        <v>0.006642437854521788</v>
       </c>
       <c r="E2">
-        <v>0.4304973541417638</v>
+        <v>1.555664848783124</v>
       </c>
       <c r="F2">
-        <v>0.8133486523056916</v>
+        <v>1.875886600853107</v>
       </c>
       <c r="G2">
-        <v>0.002341840673280299</v>
+        <v>0.0007204789689705207</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6112125958755712</v>
+        <v>1.421898502779896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>2.71929717795183</v>
+        <v>6.307730098780894</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.001082874213395257</v>
+        <v>0.003043403720875304</v>
       </c>
       <c r="D3">
-        <v>0.001855303547857901</v>
+        <v>0.005565408747875367</v>
       </c>
       <c r="E3">
-        <v>0.3750918814098725</v>
+        <v>1.326205296570151</v>
       </c>
       <c r="F3">
-        <v>0.7525647962886808</v>
+        <v>1.618701688777321</v>
       </c>
       <c r="G3">
-        <v>0.002346712352590319</v>
+        <v>0.0007282076964885772</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.565059335681795</v>
+        <v>1.226591802238644</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>2.515198469554434</v>
+        <v>5.440399268552937</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001002524826834161</v>
+        <v>0.002755456163155756</v>
       </c>
       <c r="D4">
-        <v>0.001739784820802726</v>
+        <v>0.004941238201009668</v>
       </c>
       <c r="E4">
-        <v>0.3412096363495465</v>
+        <v>1.189466614278714</v>
       </c>
       <c r="F4">
-        <v>0.7157517958633264</v>
+        <v>1.464263074801508</v>
       </c>
       <c r="G4">
-        <v>0.002349859887713835</v>
+        <v>0.0007330636034172376</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5371031260879988</v>
+        <v>1.10933058183717</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>2.391593294181121</v>
+        <v>4.919871494112556</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0009698708156626878</v>
+        <v>0.002638839087271805</v>
       </c>
       <c r="D5">
-        <v>0.001693152239583995</v>
+        <v>0.004694650207547113</v>
       </c>
       <c r="E5">
-        <v>0.3274337357478458</v>
+        <v>1.134615199638148</v>
       </c>
       <c r="F5">
-        <v>0.7008764035240631</v>
+        <v>1.40207934259054</v>
       </c>
       <c r="G5">
-        <v>0.002351181983377026</v>
+        <v>0.0007350722318866132</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5258055262832073</v>
+        <v>1.062120111888447</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>2.341647831043247</v>
+        <v>4.710348188083685</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0009644540519069267</v>
+        <v>0.002619514296688052</v>
       </c>
       <c r="D6">
-        <v>0.001685434953795806</v>
+        <v>0.004654131597929378</v>
       </c>
       <c r="E6">
-        <v>0.3251480654236474</v>
+        <v>1.125555087158773</v>
       </c>
       <c r="F6">
-        <v>0.6984139299659091</v>
+        <v>1.391795807124055</v>
       </c>
       <c r="G6">
-        <v>0.002351403903144679</v>
+        <v>0.0007354076191272707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5239352555636714</v>
+        <v>1.054312973018099</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.333379901361866</v>
+        <v>4.675702148011794</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.001002084080932164</v>
+        <v>0.002753880692161204</v>
       </c>
       <c r="D7">
-        <v>0.001739154157634815</v>
+        <v>0.00493788310492782</v>
       </c>
       <c r="E7">
-        <v>0.3410237266118799</v>
+        <v>1.188723556964064</v>
       </c>
       <c r="F7">
-        <v>0.7155506723287317</v>
+        <v>1.46342155432194</v>
       </c>
       <c r="G7">
-        <v>0.002349877557992056</v>
+        <v>0.0007330905693050533</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5369503806425655</v>
+        <v>1.10869167646662</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>2.390918000611521</v>
+        <v>4.917035810342952</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001168915712886687</v>
+        <v>0.00335359690719983</v>
       </c>
       <c r="D8">
-        <v>0.001980151755827109</v>
+        <v>0.00626235690533683</v>
       </c>
       <c r="E8">
-        <v>0.4113632681818302</v>
+        <v>1.475574751987509</v>
       </c>
       <c r="F8">
-        <v>0.7922838023180532</v>
+        <v>1.786410600747104</v>
       </c>
       <c r="G8">
-        <v>0.002343488075216054</v>
+        <v>0.0007231222053679653</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5952188533536429</v>
+        <v>1.353945487933956</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>2.648564921756588</v>
+        <v>6.005909939732646</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.001498820731374195</v>
+        <v>0.004566520248172168</v>
       </c>
       <c r="D9">
-        <v>0.00246857337649331</v>
+        <v>0.009238535903744349</v>
       </c>
       <c r="E9">
-        <v>0.5505299427434807</v>
+        <v>2.080150551991053</v>
       </c>
       <c r="F9">
-        <v>0.9468763800419708</v>
+        <v>2.453626078189458</v>
       </c>
       <c r="G9">
-        <v>0.002332191884470869</v>
+        <v>0.0007043461187644651</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7125798299844917</v>
+        <v>1.860794532613482</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
-        <v>3.16769198211972</v>
+        <v>8.258400942964329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.001742874978909015</v>
+        <v>0.005495583857982211</v>
       </c>
       <c r="D10">
-        <v>0.002838666599469519</v>
+        <v>0.0118002327853759</v>
       </c>
       <c r="E10">
-        <v>0.6537366696595939</v>
+        <v>2.565303474275467</v>
       </c>
       <c r="F10">
-        <v>1.06309597156465</v>
+        <v>2.974593910482724</v>
       </c>
       <c r="G10">
-        <v>0.002324635282823703</v>
+        <v>0.0006908526893891764</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8007924982839825</v>
+        <v>2.256764885090945</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>3.558010637400116</v>
+        <v>10.02018155099915</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.001854267906850282</v>
+        <v>0.005931073796265451</v>
       </c>
       <c r="D11">
-        <v>0.003009832214619479</v>
+        <v>0.01308930171101608</v>
       </c>
       <c r="E11">
-        <v>0.7009434488239918</v>
+        <v>2.799302802325784</v>
       </c>
       <c r="F11">
-        <v>1.116569624944674</v>
+        <v>3.221026994759711</v>
       </c>
       <c r="G11">
-        <v>0.00232135686987699</v>
+        <v>0.0006847334768172637</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8413766745340467</v>
+        <v>2.44414140663666</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
-        <v>3.737614285049801</v>
+        <v>10.85450883921897</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.001896502724171967</v>
+        <v>0.006098334650168624</v>
       </c>
       <c r="D12">
-        <v>0.003075081495182985</v>
+        <v>0.01359980660339843</v>
       </c>
       <c r="E12">
-        <v>0.7188601408737298</v>
+        <v>2.890292991878425</v>
       </c>
       <c r="F12">
-        <v>1.136907811103981</v>
+        <v>3.315981211504635</v>
       </c>
       <c r="G12">
-        <v>0.002320138148584871</v>
+        <v>0.0006824143233246094</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.856812041308217</v>
+        <v>2.516352879844348</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>3.805927218431975</v>
+        <v>11.17615482988487</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.001887404365003675</v>
+        <v>0.006062198138955921</v>
       </c>
       <c r="D13">
-        <v>0.003061009191064556</v>
+        <v>0.01348878120558794</v>
       </c>
       <c r="E13">
-        <v>0.7149996029872341</v>
+        <v>2.870582210304534</v>
       </c>
       <c r="F13">
-        <v>1.132523635391408</v>
+        <v>3.295453424476449</v>
       </c>
       <c r="G13">
-        <v>0.002320399612628563</v>
+        <v>0.0006829139648385403</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8534847543662067</v>
+        <v>2.500741157207898</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>3.791201313206784</v>
+        <v>11.1066114340764</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.00185774153795748</v>
+        <v>0.005944784017930971</v>
       </c>
       <c r="D14">
-        <v>0.003015191475455481</v>
+        <v>0.01313082304946889</v>
       </c>
       <c r="E14">
-        <v>0.7024166338525077</v>
+        <v>2.806737875639413</v>
       </c>
       <c r="F14">
-        <v>1.118241067548041</v>
+        <v>3.228804390552881</v>
       </c>
       <c r="G14">
-        <v>0.00232125614985158</v>
+        <v>0.0006845427475152354</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8426451997138429</v>
+        <v>2.450055750782809</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>3.743228361005436</v>
+        <v>10.88085029621425</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.001839579047743456</v>
+        <v>0.005873187587212669</v>
       </c>
       <c r="D15">
-        <v>0.002987184001156606</v>
+        <v>0.01291462946970867</v>
       </c>
       <c r="E15">
-        <v>0.694714581711608</v>
+        <v>2.767956929079872</v>
       </c>
       <c r="F15">
-        <v>1.10950421354994</v>
+        <v>3.188201995857071</v>
       </c>
       <c r="G15">
-        <v>0.002321783761383234</v>
+        <v>0.0006855400175439319</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8360144317726395</v>
+        <v>2.419180057765161</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>3.713882935004619</v>
+        <v>10.74333994796024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.001735602602920494</v>
+        <v>0.005467422382690046</v>
       </c>
       <c r="D16">
-        <v>0.002827539476296437</v>
+        <v>0.0117188461498472</v>
       </c>
       <c r="E16">
-        <v>0.6506570735473218</v>
+        <v>2.550316357013571</v>
       </c>
       <c r="F16">
-        <v>1.059613674597244</v>
+        <v>2.958701557036193</v>
       </c>
       <c r="G16">
-        <v>0.002324852725070079</v>
+        <v>0.0006912525965553362</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.798149524367247</v>
+        <v>2.244682658061336</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>3.546314856958759</v>
+        <v>9.966397498292395</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.00167191103755826</v>
+        <v>0.005222111143567076</v>
       </c>
       <c r="D17">
-        <v>0.002730342243449257</v>
+        <v>0.01101990009757969</v>
       </c>
       <c r="E17">
-        <v>0.623697632425575</v>
+        <v>2.420509215818811</v>
       </c>
       <c r="F17">
-        <v>1.029163690499303</v>
+        <v>2.82051148845423</v>
       </c>
       <c r="G17">
-        <v>0.00232677609088879</v>
+        <v>0.0006947588831374141</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7750384128584074</v>
+        <v>2.139631109142385</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>3.444046001339359</v>
+        <v>9.498832259316657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.001635312328900795</v>
+        <v>0.005082188283143552</v>
       </c>
       <c r="D18">
-        <v>0.002674699540431646</v>
+        <v>0.0106292048118668</v>
       </c>
       <c r="E18">
-        <v>0.6082153024572534</v>
+        <v>2.347066349565566</v>
       </c>
       <c r="F18">
-        <v>1.011706473618517</v>
+        <v>2.741897773018422</v>
       </c>
       <c r="G18">
-        <v>0.002327897345805218</v>
+        <v>0.0006967777209274589</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7617883241393457</v>
+        <v>2.079875626933799</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>3.385415803845092</v>
+        <v>9.232928798362252</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.001622926667021574</v>
+        <v>0.005035001012803519</v>
       </c>
       <c r="D19">
-        <v>0.002655904109918339</v>
+        <v>0.01049874354102442</v>
       </c>
       <c r="E19">
-        <v>0.6029772733294863</v>
+        <v>2.322396548995101</v>
       </c>
       <c r="F19">
-        <v>1.005805459256663</v>
+        <v>2.71542218279626</v>
       </c>
       <c r="G19">
-        <v>0.002328279561517547</v>
+        <v>0.0006974617567445662</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7573093800281043</v>
+        <v>2.059752154711973</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>3.365597423163877</v>
+        <v>9.143391491210707</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.001678687496848852</v>
+        <v>0.005248100221205476</v>
       </c>
       <c r="D20">
-        <v>0.002740661673289679</v>
+        <v>0.0110931027129304</v>
       </c>
       <c r="E20">
-        <v>0.6265649991965745</v>
+        <v>2.434198206272868</v>
       </c>
       <c r="F20">
-        <v>1.032399250097257</v>
+        <v>2.835130204803107</v>
       </c>
       <c r="G20">
-        <v>0.002326569795315775</v>
+        <v>0.0006943854453137116</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7774941886937512</v>
+        <v>2.1507435237137</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>3.454912760925026</v>
+        <v>9.548285503668353</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.001866452803493956</v>
+        <v>0.005979202975286313</v>
       </c>
       <c r="D21">
-        <v>0.003028637277004975</v>
+        <v>0.0132353153328566</v>
       </c>
       <c r="E21">
-        <v>0.7061114294735802</v>
+        <v>2.825421672944387</v>
       </c>
       <c r="F21">
-        <v>1.122433776554914</v>
+        <v>3.248333981345695</v>
       </c>
       <c r="G21">
-        <v>0.0023210039480104</v>
+        <v>0.0006840644289666327</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8458272088643355</v>
+        <v>2.464907296063402</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>3.757310958386086</v>
+        <v>10.94699833237496</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.001989475413587627</v>
+        <v>0.006471052459705362</v>
       </c>
       <c r="D22">
-        <v>0.003219381215664896</v>
+        <v>0.01476868495268135</v>
       </c>
       <c r="E22">
-        <v>0.7583373973780283</v>
+        <v>3.095278614990747</v>
       </c>
       <c r="F22">
-        <v>1.181795479378252</v>
+        <v>3.528086308357132</v>
       </c>
       <c r="G22">
-        <v>0.002317498841747085</v>
+        <v>0.000677304880937048</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8908781354258508</v>
+        <v>2.677682017409666</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>3.956702928797881</v>
+        <v>11.89497851262718</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.001923788026378048</v>
+        <v>0.006207058287316158</v>
       </c>
       <c r="D23">
-        <v>0.003117335930564735</v>
+        <v>0.01393629075598213</v>
       </c>
       <c r="E23">
-        <v>0.7304404936382269</v>
+        <v>2.949770951391045</v>
       </c>
       <c r="F23">
-        <v>1.150064900034465</v>
+        <v>3.377784185034216</v>
       </c>
       <c r="G23">
-        <v>0.002319357505304813</v>
+        <v>0.0006809156632726632</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8667973049203681</v>
+        <v>2.56335708446214</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>3.850120629423031</v>
+        <v>11.38555575188769</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.001675623802238846</v>
+        <v>0.005236347138719566</v>
       </c>
       <c r="D24">
-        <v>0.002735995522815671</v>
+        <v>0.011059973448031</v>
       </c>
       <c r="E24">
-        <v>0.6252686099535509</v>
+        <v>2.42800575654897</v>
       </c>
       <c r="F24">
-        <v>1.030936301482228</v>
+        <v>2.828518506973978</v>
       </c>
       <c r="G24">
-        <v>0.002326663013365198</v>
+        <v>0.0006945542666885047</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7763838179350273</v>
+        <v>2.1457176230996</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>3.449999383836655</v>
+        <v>9.525918711586371</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.001409279053220303</v>
+        <v>0.004233038155808444</v>
       </c>
       <c r="D25">
-        <v>0.002334584835804066</v>
+        <v>0.008379643469382358</v>
       </c>
       <c r="E25">
-        <v>0.5127283134970213</v>
+        <v>1.910675845220155</v>
       </c>
       <c r="F25">
-        <v>0.9046007503701361</v>
+        <v>2.268545611566722</v>
       </c>
       <c r="G25">
-        <v>0.002335116704995537</v>
+        <v>0.0007093588916924354</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6804888268093805</v>
+        <v>1.720168068184222</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>3.025721714252711</v>
+        <v>7.63314850386422</v>
       </c>
     </row>
   </sheetData>
